--- a/config_6.15/item_config.xlsx
+++ b/config_6.15/item_config.xlsx
@@ -3436,19 +3436,19 @@
     <t>金钥匙</t>
   </si>
   <si>
+    <t>在夺宝中开启豪华宝箱</t>
+  </si>
+  <si>
+    <t>prop_super_treasure_key_2</t>
+  </si>
+  <si>
+    <t>cjdb_bg_ys</t>
+  </si>
+  <si>
+    <t>银钥匙</t>
+  </si>
+  <si>
     <t>在夺宝中开启普通宝箱</t>
-  </si>
-  <si>
-    <t>prop_super_treasure_key_2</t>
-  </si>
-  <si>
-    <t>cjdb_bg_ys</t>
-  </si>
-  <si>
-    <t>银钥匙</t>
-  </si>
-  <si>
-    <t>在夺宝中开启豪华宝箱</t>
   </si>
   <si>
     <t>prop_any_dice_1</t>
@@ -3471,10 +3471,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -3534,15 +3534,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3556,28 +3566,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -3585,32 +3579,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3633,6 +3610,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -3648,15 +3633,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3672,9 +3657,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3740,7 +3740,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3752,13 +3818,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3770,19 +3848,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3794,91 +3860,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3896,19 +3884,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3948,6 +3948,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3968,6 +3983,30 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3998,50 +4037,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4053,10 +4053,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4065,133 +4065,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4650,7 +4650,7 @@
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L322" sqref="L322"/>
+      <selection pane="bottomLeft" activeCell="J330" sqref="J330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_6.15/item_config.xlsx
+++ b/config_6.15/item_config.xlsx
@@ -3397,13 +3397,13 @@
     <t>prop_grade</t>
   </si>
   <si>
-    <t>com_award_icon_f</t>
-  </si>
-  <si>
-    <t>福气</t>
-  </si>
-  <si>
-    <t>用于参加福气达人排行榜</t>
+    <t>com_icon_cl</t>
+  </si>
+  <si>
+    <t>财力</t>
+  </si>
+  <si>
+    <t>用于参加排行榜</t>
   </si>
   <si>
     <t>obj_aquaman_add8</t>
@@ -3471,10 +3471,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -3534,36 +3534,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -3571,7 +3541,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -3587,23 +3556,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3612,6 +3565,52 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3626,7 +3625,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3634,7 +3633,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3649,7 +3648,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3665,14 +3664,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3740,7 +3740,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3752,31 +3818,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3788,25 +3836,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3818,19 +3848,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3848,25 +3866,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3878,31 +3878,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3965,11 +3965,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3979,15 +3977,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4010,8 +3999,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4027,6 +4016,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4053,10 +4053,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4065,133 +4065,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4647,10 +4647,10 @@
   <sheetPr/>
   <dimension ref="A1:Q328"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C330" sqref="C330"/>
+      <selection pane="bottomLeft" activeCell="L322" sqref="L322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
